--- a/Program/Other/LP006_底稿_房貸協辦人員職級名冊.xlsx
+++ b/Program/Other/LP006_底稿_房貸協辦人員職級名冊.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\SKL\iTX\Other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\itxWrite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CFCABD-22E5-4E94-AD88-955450CCB534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="791"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="791" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="職級名冊" sheetId="73" r:id="rId1"/>
@@ -87,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>部室</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,17 +127,21 @@
   </si>
   <si>
     <t>YYY年第N季房貸協辦職級名冊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -183,14 +188,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -236,7 +233,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -252,141 +249,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般_9804" xfId="2"/>
-    <cellStyle name="千分位 2" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般_9804" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="千分位 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF002060"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0000FF"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -770,40 +649,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="工作表4"/>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5546875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.77734375" style="2" customWidth="1"/>
     <col min="7" max="8" width="12.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="6" customWidth="1"/>
     <col min="10" max="10" width="9" style="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -834,8 +713,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.899999999999999" customHeight="1">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:9" ht="24" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -843,90 +724,42 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="17" priority="16" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="18" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:H3">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="11" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"初級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"中級"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"高級"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
